--- a/tabelle_finali_donne_indicatori_stati/info_identikit_donne_raw_v2.xlsx
+++ b/tabelle_finali_donne_indicatori_stati/info_identikit_donne_raw_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzolorgna/PycharmProjects/progetto_bbc_100_women/tabelle_finali_donne_indicatori_stati/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75011C79-7AEA-AD47-A532-006CCDC2A8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA3BFB9-CB21-264C-92EA-87EE25492F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2587,8 +2587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="189" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="189" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
